--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Westland Petrel_New Zealand.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Westland Petrel_New Zealand.xlsx
@@ -2962,13 +2962,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{044E8986-A36F-4B59-9CBE-90A9BD238FA5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD2F9B1D-184B-40B5-B90F-FE540AF56FB2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E76EFC5B-9A0B-48BD-9011-967916B3BF08}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC977E74-A064-40E8-AE43-757D9A49B2F4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E101E885-3B7F-4EB6-A710-33E4CBD6F2F7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB76FD62-6048-4C3C-A8FC-279E8F8E57AD}"/>
 </file>